--- a/medicine/Pharmacie/Classe_ATC_V03/Classe_ATC_V03.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_V03/Classe_ATC_V03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC V03, dénommée « Tous autres médicaments », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QV03[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique V de la classification, intitulé « Divers ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC V03, dénommée « Tous autres médicaments », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QV03. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique V de la classification, intitulé « Divers ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>V03AB Antidotes
-V03AB01 Ipécacuanha
+          <t>V03AB Antidotes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>V03AB01 Ipécacuanha
 V03AB02 Nalorphine
 V03AB03 Édétates
 V03AB04 Pralidoxime
@@ -550,13 +567,81 @@
 « QV03AB91 » Sarmazénil (en)
 « QV03AB92 » Diprénorfine
 « QV03AB93 » Yohimbine
-« QV03AB94 » Tolazoline (en)
-V03AC Chélateurs du fer
-V03AC01 Déféroxamine
+« QV03AB94 » Tolazoline (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>V03A Tous autres médicaments</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>V03AC Chélateurs du fer</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>V03AC01 Déféroxamine
 V03AC02 Défériprone
-V03AC03 Déférasirox
-V03AE Médicaments de l'hyperkaliémie et de l'hyperphosphatémie
-V03AE01 Sulfonate de polystyrène
+V03AC03 Déférasirox</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>V03A Tous autres médicaments</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>V03AE Médicaments de l'hyperkaliémie et de l'hyperphosphatémie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>V03AE01 Sulfonate de polystyrène
 V03AE02 Sévélamer
 V03AE03 Carbonate de lanthanum
 V03AE04 Acétate de calcium et carbonate de magnésium (en)
@@ -565,9 +650,43 @@
 V03AE07 Acétate de calcium
 V03AE08 Citrate ferrique
 V03AE09 Patiromer de calcium
-V03AE10 Cyclosilicate de zirconium sodique (ZS-9)
-V03AF Médicaments détoxifiants dans un traitement cytostatique
-V03AF01 Mesna
+V03AE10 Cyclosilicate de zirconium sodique (ZS-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>V03A Tous autres médicaments</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>V03AF Médicaments détoxifiants dans un traitement cytostatique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>V03AF01 Mesna
 V03AF02 Dexrazoxane
 V03AF03 Folinate de calcium
 V03AF04 Lévofolinate de calcium
@@ -576,26 +695,264 @@
 V03AF07 Rasburicase
 V03AF08 Palifermine
 V03AF09 Glucarpidase (en)
-V03AF10 Lévofolinate de sodium
-V03AG Médicaments de l'hypercalcémie
-V03AG01 Sodium cellulose phosphate (en)
-V03AH Médicaments de l'hypoglycémie
-V03AH01 Diazoxide
-V03AK Sparadraps
-Vide.
-V03AM Médicaments pour l'embolisation
-Vide.
-V03AN Gaz médicaux
-V03AN01 Oxygène
+V03AF10 Lévofolinate de sodium</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>V03A Tous autres médicaments</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>V03AG Médicaments de l'hypercalcémie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>V03AG01 Sodium cellulose phosphate (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>V03A Tous autres médicaments</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>V03AH Médicaments de l'hypoglycémie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>V03AH01 Diazoxide</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>V03A Tous autres médicaments</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>V03AK Sparadraps</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>V03A Tous autres médicaments</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>V03AM Médicaments pour l'embolisation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>V03A Tous autres médicaments</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>V03AN Gaz médicaux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>V03AN01 Oxygène
 V03AN02 Dioxyde de carbone
 V03AN03 Hélium
 V03AN04 Diazote
-V03AN05 Air médical
-V03AX Autres médicaments
-V03AX02 Nalfurafine (en)
-V03AX03 Cobicistat (en)
-V03AZ Dépresseurs du système nerveux
-V03AZ01 Éthanol</t>
+V03AN05 Air médical</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>V03A Tous autres médicaments</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>V03AX Autres médicaments</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>V03AX02 Nalfurafine (en)
+V03AX03 Cobicistat (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>V03A Tous autres médicaments</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>V03AZ Dépresseurs du système nerveux</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>V03AZ01 Éthanol</t>
         </is>
       </c>
     </row>
